--- a/Energy Consumption12.xlsx
+++ b/Energy Consumption12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8350768887652704</v>
+        <v>3.414560184563785</v>
       </c>
       <c r="C2" t="n">
-        <v>3.474712891606385</v>
+        <v>0.9715082175781996</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.012947622130352</v>
+        <v>6.873669115625596</v>
       </c>
       <c r="C3" t="n">
-        <v>6.952680573416146</v>
+        <v>2.009117360810823</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.67099168679842</v>
+        <v>6.963847387791335</v>
       </c>
       <c r="C4" t="n">
-        <v>10.79877308857269</v>
+        <v>3.09163508699771</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.730229841424794</v>
+        <v>11.36172526641021</v>
       </c>
       <c r="C5" t="n">
-        <v>13.98391739910241</v>
+        <v>4.076103905791267</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.87639135209166</v>
+        <v>13.87160446187429</v>
       </c>
       <c r="C6" t="n">
-        <v>17.78207641646198</v>
+        <v>5.01374544178367</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.77702356712152</v>
+        <v>14.28838018689751</v>
       </c>
       <c r="C7" t="n">
-        <v>21.1804721852401</v>
+        <v>6.115755149103618</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.98158161636623</v>
+        <v>15.03824802640578</v>
       </c>
       <c r="C8" t="n">
-        <v>24.2479621336496</v>
+        <v>7.140384260857716</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.43101663134981</v>
+        <v>16.17811102956089</v>
       </c>
       <c r="C9" t="n">
-        <v>27.72868912103971</v>
+        <v>8.062869346176978</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.47193904104392</v>
+        <v>20.24774837571299</v>
       </c>
       <c r="C10" t="n">
-        <v>31.10027672102877</v>
+        <v>9.421480561871418</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.37649953271441</v>
+        <v>21.7086888204447</v>
       </c>
       <c r="C11" t="n">
-        <v>34.80684427406434</v>
+        <v>10.51270186825795</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.21929341079283</v>
+        <v>23.4117721480372</v>
       </c>
       <c r="C12" t="n">
-        <v>38.33011422654711</v>
+        <v>12.26767129716399</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24.16617723363468</v>
+        <v>23.88440416133724</v>
       </c>
       <c r="C13" t="n">
-        <v>42.13498958841832</v>
+        <v>13.41749628068702</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.08043956201087</v>
+        <v>26.98253972628149</v>
       </c>
       <c r="C14" t="n">
-        <v>45.44196836994342</v>
+        <v>14.66708669598139</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31.14003639579674</v>
+        <v>27.38081924812407</v>
       </c>
       <c r="C15" t="n">
-        <v>49.22306475479314</v>
+        <v>15.77205972740558</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.8439089592343</v>
+        <v>28.29669026642373</v>
       </c>
       <c r="C16" t="n">
-        <v>52.7222856136905</v>
+        <v>16.8887124757207</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.851795508574</v>
+        <v>28.7434193179763</v>
       </c>
       <c r="C17" t="n">
-        <v>56.16229567818684</v>
+        <v>17.92246773666597</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>37.06250609154691</v>
+        <v>28.9354713203076</v>
       </c>
       <c r="C18" t="n">
-        <v>60.32616633562707</v>
+        <v>19.10727674593277</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.25998686389553</v>
+        <v>30.6095886493334</v>
       </c>
       <c r="C19" t="n">
-        <v>63.88393658414695</v>
+        <v>20.15015421034203</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.85118065430327</v>
+        <v>36.73907573072835</v>
       </c>
       <c r="C20" t="n">
-        <v>67.05898360659243</v>
+        <v>21.14947648840182</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.02303325758612</v>
+        <v>41.69392564439558</v>
       </c>
       <c r="C21" t="n">
-        <v>70.75445895002633</v>
+        <v>22.4760546165044</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.69077764394385</v>
+        <v>42.93556203367105</v>
       </c>
       <c r="C22" t="n">
-        <v>74.40185564467637</v>
+        <v>23.85725923425377</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46.75566064002057</v>
+        <v>48.32865408425954</v>
       </c>
       <c r="C23" t="n">
-        <v>77.60823879919663</v>
+        <v>25.02827306920507</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>47.93480772994521</v>
+        <v>50.1861639085264</v>
       </c>
       <c r="C24" t="n">
-        <v>81.26305152577781</v>
+        <v>26.15889293224559</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>48.95810972905537</v>
+        <v>58.54405620326673</v>
       </c>
       <c r="C25" t="n">
-        <v>84.90777333197049</v>
+        <v>27.39019954217174</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.97104498913044</v>
+        <v>64.09129550975992</v>
       </c>
       <c r="C26" t="n">
-        <v>88.57971726083699</v>
+        <v>28.42418790707073</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.52270191124271</v>
+        <v>66.14449522269737</v>
       </c>
       <c r="C27" t="n">
-        <v>92.54013605952818</v>
+        <v>29.62294798307177</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>56.61279938770616</v>
+        <v>68.73700433170987</v>
       </c>
       <c r="C28" t="n">
-        <v>96.33736907337422</v>
+        <v>30.59390238201974</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>58.33786785151228</v>
+        <v>68.8606017629418</v>
       </c>
       <c r="C29" t="n">
-        <v>99.10519692547048</v>
+        <v>31.89321862087498</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>60.48958082116105</v>
+        <v>71.50574123286495</v>
       </c>
       <c r="C30" t="n">
-        <v>103.5122534057141</v>
+        <v>32.83012823301632</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61.68713436194768</v>
+        <v>75.12712002498056</v>
       </c>
       <c r="C31" t="n">
-        <v>106.8304409253277</v>
+        <v>33.81195371436943</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>62.5097373913792</v>
+        <v>76.28568609339311</v>
       </c>
       <c r="C32" t="n">
-        <v>110.9022017183172</v>
+        <v>34.82135019108392</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>63.55361037460693</v>
+        <v>77.38559530561498</v>
       </c>
       <c r="C33" t="n">
-        <v>114.1269315929824</v>
+        <v>36.15849802342053</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.13765523309115</v>
+        <v>79.55035189048559</v>
       </c>
       <c r="C34" t="n">
-        <v>117.9532922360428</v>
+        <v>37.33434630705788</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.80067563192591</v>
+        <v>79.77715925669702</v>
       </c>
       <c r="C35" t="n">
-        <v>121.964155493464</v>
+        <v>38.45041929202027</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>69.60984388749124</v>
+        <v>80.4089719186379</v>
       </c>
       <c r="C36" t="n">
-        <v>125.8606538988865</v>
+        <v>39.54216948758582</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>71.72015153875718</v>
+        <v>82.62247651712045</v>
       </c>
       <c r="C37" t="n">
-        <v>129.7320936418482</v>
+        <v>40.58430055430698</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>75.51127426894445</v>
+        <v>83.05855086897253</v>
       </c>
       <c r="C38" t="n">
-        <v>132.7738011011118</v>
+        <v>41.6678574096573</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78.86842502479723</v>
+        <v>84.06118153322561</v>
       </c>
       <c r="C39" t="n">
-        <v>136.1753090540994</v>
+        <v>42.84465069527783</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>81.43355691965371</v>
+        <v>84.76166640437168</v>
       </c>
       <c r="C40" t="n">
-        <v>140.2946622956111</v>
+        <v>43.85226849392561</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>82.82915204146408</v>
+        <v>89.92301760418381</v>
       </c>
       <c r="C41" t="n">
-        <v>143.7473522871454</v>
+        <v>44.90498511600848</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.80386053308973</v>
+        <v>90.34337152317578</v>
       </c>
       <c r="C42" t="n">
-        <v>146.9538125968184</v>
+        <v>46.06698466918774</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>85.38547890162977</v>
+        <v>91.23291768875649</v>
       </c>
       <c r="C43" t="n">
-        <v>150.5754807649899</v>
+        <v>47.13258111041165</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>86.70054333069673</v>
+        <v>91.34110983542263</v>
       </c>
       <c r="C44" t="n">
-        <v>154.4105204011759</v>
+        <v>48.31383260911085</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>91.38164807239436</v>
+        <v>92.74486968610623</v>
       </c>
       <c r="C45" t="n">
-        <v>158.3442512702482</v>
+        <v>49.57902081297773</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.40525484034218</v>
+        <v>93.30768170106533</v>
       </c>
       <c r="C46" t="n">
-        <v>161.6307706038854</v>
+        <v>50.6718462794841</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>96.49655069593008</v>
+        <v>96.04071387289376</v>
       </c>
       <c r="C47" t="n">
-        <v>165.7269576922296</v>
+        <v>51.73591260438401</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>96.84090829981942</v>
+        <v>99.00351516661436</v>
       </c>
       <c r="C48" t="n">
-        <v>168.9762439358475</v>
+        <v>52.89390434487999</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.81152341788224</v>
+        <v>99.08607720026427</v>
       </c>
       <c r="C49" t="n">
-        <v>172.6215555837233</v>
+        <v>53.98076850960503</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>99.63213412225934</v>
+      </c>
+      <c r="C50" t="n">
+        <v>55.15369795941399</v>
       </c>
     </row>
   </sheetData>
